--- a/RQ6/experience.xlsx
+++ b/RQ6/experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\FSE2021APIComp.github.io\RQ6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07302DB6-FDAC-4152-9A32-1E22A57BB506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81002404-4994-4BF4-98D5-2CE4C0D5534B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" activeTab="1" xr2:uid="{7B9116A1-8693-49CE-9A57-53AB9E5EAD69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{7B9116A1-8693-49CE-9A57-53AB9E5EAD69}"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="2" r:id="rId1"/>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AFEC1-20D6-41C0-B4CC-D92CC54E0991}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3403961B-4531-4E8F-A3C6-C4F38B75FEB3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
